--- a/biology/Médecine/Georges_Crémer/Georges_Crémer.xlsx
+++ b/biology/Médecine/Georges_Crémer/Georges_Crémer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Georges_Cr%C3%A9mer</t>
+          <t>Georges_Crémer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges-Alfred Crémer est un médecin et universitaire français né le 15 avril 1927 à Paris et mort le 16 mai 2013 également à Paris. Il est président de l’université Paris-V de 1989 à 1994 puis membre de l’Académie nationale de médecine de 1994 à sa mort. Georges Crémer joue un rôle important dans l'élaboration d'une formation universitaire véritable, il met en valeur le patrimoine de l'université et permet le développement du Musée d'histoire de la médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Georges_Cr%C3%A9mer</t>
+          <t>Georges_Crémer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Il naît le 15 avril 1927 dans le 13e arrondissement de Paris[1] dans une famille originaire de Belgique[2]. Il est élève de l’École des Roches[3].
-Il soutient sa thèse de médecine en 1961[4],[5].
-Parcours professionnel
-Il est doyen de la faculté de médecine Cochin-Port-Royal de 1979 à 1989 avant d’être élu président de Paris-V de 1989[6] à 1994[7], puis président honoraire[8].
-Vie privée
-Il est le frère de l'acteur Bruno Cremer[9].
-Il épouse Micheline Lafosse en 1951. Ils ont trois enfants[2].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il naît le 15 avril 1927 dans le 13e arrondissement de Paris dans une famille originaire de Belgique. Il est élève de l’École des Roches.
+Il soutient sa thèse de médecine en 1961,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Georges_Crémer</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Cr%C3%A9mer</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcours professionnel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est doyen de la faculté de médecine Cochin-Port-Royal de 1979 à 1989 avant d’être élu président de Paris-V de 1989 à 1994, puis président honoraire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Georges_Crémer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Cr%C3%A9mer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le frère de l'acteur Bruno Cremer.
+Il épouse Micheline Lafosse en 1951. Ils ont trois enfants.
 </t>
         </is>
       </c>
